--- a/Doc/PCB/TeC7cPin.xlsx
+++ b/Doc/PCB/TeC7cPin.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sigemura/Library/Mobile Documents/com~apple~CloudDocs/GitHub/TeC7/Doc/PCB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F2152F-0115-F545-9C5C-C50444C2567D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A405BF7A-72B2-3244-A589-D32B2C853152}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="22800" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,6 +18,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -30,14 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="220">
-  <si>
-    <t>ピン番号</t>
-    <rPh sb="2" eb="4">
-      <t>バンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="219">
   <si>
     <t>注釈</t>
     <rPh sb="0" eb="2">
@@ -694,18 +688,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>EXT_IN(6)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>EXT_IN(5)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>EXT_IN(4)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>EXT_OUT(7)</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -735,10 +717,6 @@
   </si>
   <si>
     <t>EXT_OUT(0)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>EXT_IN(7)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -882,10 +860,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>IN(PULLUP)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>SPI_CS</t>
   </si>
   <si>
@@ -1014,16 +988,39 @@
   </si>
   <si>
     <t>TeC7b,c Spartan-6 ピン配置</t>
-    <rPh sb="80" eb="82">
+    <rPh sb="0" eb="22">
       <t>ハイチ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>V2.1(TeC7b,c用) 2019/03/05</t>
-    <rPh sb="247" eb="248">
+    <rPh sb="0" eb="25">
       <t>ヨウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>番号</t>
+    <rPh sb="0" eb="2">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EXT_INOUT(3)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EXT_INOUT(2)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EXT_INOUT(1)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EXT_INOUT(0)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2118,28 +2115,28 @@
   </sheetPr>
   <dimension ref="B1:X41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="X2" sqref="X2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="T29" sqref="T29:X34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="1.6640625" customWidth="1"/>
-    <col min="2" max="2" width="7.5" customWidth="1"/>
+    <col min="2" max="2" width="5" customWidth="1"/>
     <col min="3" max="3" width="11.83203125" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
     <col min="5" max="5" width="8.83203125" customWidth="1"/>
     <col min="7" max="7" width="1.6640625" customWidth="1"/>
-    <col min="8" max="8" width="7.5" customWidth="1"/>
+    <col min="8" max="8" width="5" customWidth="1"/>
     <col min="9" max="9" width="11.83203125" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
     <col min="11" max="11" width="8.83203125" customWidth="1"/>
     <col min="13" max="13" width="1.5" customWidth="1"/>
-    <col min="14" max="14" width="7.5" customWidth="1"/>
+    <col min="14" max="14" width="5" customWidth="1"/>
     <col min="15" max="15" width="11.83203125" customWidth="1"/>
     <col min="16" max="16" width="14" customWidth="1"/>
     <col min="19" max="19" width="1.5" customWidth="1"/>
-    <col min="20" max="20" width="7.6640625" customWidth="1"/>
+    <col min="20" max="20" width="5" customWidth="1"/>
     <col min="21" max="21" width="11.83203125" customWidth="1"/>
     <col min="22" max="22" width="14" customWidth="1"/>
     <col min="24" max="24" width="9.83203125" bestFit="1" customWidth="1"/>
@@ -2147,65 +2144,65 @@
   <sheetData>
     <row r="1" spans="2:24" ht="17">
       <c r="B1" s="18" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="X1" s="25" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3" spans="2:24">
       <c r="B3" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="E3" s="26" t="s">
         <v>0</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="E3" s="26" t="s">
-        <v>1</v>
       </c>
       <c r="F3" s="27"/>
       <c r="H3" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="K3" s="26" t="s">
         <v>0</v>
-      </c>
-      <c r="I3" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="J3" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="K3" s="26" t="s">
-        <v>1</v>
       </c>
       <c r="L3" s="27"/>
       <c r="M3" s="2"/>
       <c r="N3" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="O3" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="P3" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q3" s="28" t="s">
         <v>0</v>
-      </c>
-      <c r="O3" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="P3" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q3" s="28" t="s">
-        <v>1</v>
       </c>
       <c r="R3" s="28"/>
       <c r="S3" s="2"/>
       <c r="T3" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="U3" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="V3" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="W3" s="28" t="s">
         <v>0</v>
-      </c>
-      <c r="U3" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="V3" s="23" t="s">
-        <v>184</v>
-      </c>
-      <c r="W3" s="28" t="s">
-        <v>1</v>
       </c>
       <c r="X3" s="28"/>
     </row>
@@ -2214,13 +2211,13 @@
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" s="5"/>
       <c r="H4" s="15">
@@ -2229,7 +2226,7 @@
       <c r="I4" s="16"/>
       <c r="J4" s="16"/>
       <c r="K4" s="16" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="L4" s="17"/>
       <c r="N4" s="15">
@@ -2238,7 +2235,7 @@
       <c r="O4" s="16"/>
       <c r="P4" s="16"/>
       <c r="Q4" s="16" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="R4" s="17"/>
       <c r="T4" s="15">
@@ -2247,7 +2244,7 @@
       <c r="U4" s="16"/>
       <c r="V4" s="16"/>
       <c r="W4" s="16" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="X4" s="17"/>
     </row>
@@ -2256,13 +2253,13 @@
         <v>2</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F5" s="8"/>
       <c r="H5" s="9">
@@ -2271,7 +2268,7 @@
       <c r="I5" s="10"/>
       <c r="J5" s="10"/>
       <c r="K5" s="10" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="L5" s="11"/>
       <c r="N5" s="9">
@@ -2280,7 +2277,7 @@
       <c r="O5" s="10"/>
       <c r="P5" s="10"/>
       <c r="Q5" s="10" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="R5" s="11"/>
       <c r="T5" s="9">
@@ -2289,7 +2286,7 @@
       <c r="U5" s="10"/>
       <c r="V5" s="10"/>
       <c r="W5" s="10" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="X5" s="11"/>
     </row>
@@ -2300,7 +2297,7 @@
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6" s="11"/>
       <c r="H6" s="9">
@@ -2309,7 +2306,7 @@
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
       <c r="K6" s="10" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="L6" s="11"/>
       <c r="N6" s="9">
@@ -2318,20 +2315,20 @@
       <c r="O6" s="10"/>
       <c r="P6" s="10"/>
       <c r="Q6" s="10" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="R6" s="11"/>
       <c r="T6" s="6">
         <v>111</v>
       </c>
       <c r="U6" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="V6" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="W6" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="X6" s="8"/>
     </row>
@@ -2342,20 +2339,20 @@
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F7" s="11"/>
       <c r="H7" s="6">
         <v>40</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L7" s="8"/>
       <c r="N7" s="9">
@@ -2364,20 +2361,20 @@
       <c r="O7" s="10"/>
       <c r="P7" s="10"/>
       <c r="Q7" s="10" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="R7" s="11"/>
       <c r="T7" s="6">
         <v>112</v>
       </c>
       <c r="U7" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="V7" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="W7" s="7" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="X7" s="8"/>
     </row>
@@ -2386,26 +2383,26 @@
         <v>5</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F8" s="8"/>
       <c r="H8" s="6">
         <v>41</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L8" s="8"/>
       <c r="N8" s="9">
@@ -2414,7 +2411,7 @@
       <c r="O8" s="10"/>
       <c r="P8" s="10"/>
       <c r="Q8" s="10" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="R8" s="11"/>
       <c r="T8" s="9">
@@ -2423,7 +2420,7 @@
       <c r="U8" s="10"/>
       <c r="V8" s="10"/>
       <c r="W8" s="10" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="X8" s="11"/>
     </row>
@@ -2432,13 +2429,13 @@
         <v>6</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F9" s="8"/>
       <c r="H9" s="9">
@@ -2447,33 +2444,33 @@
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
       <c r="K9" s="10" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="L9" s="11"/>
       <c r="N9" s="6">
         <v>78</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R9" s="8"/>
       <c r="T9" s="6">
         <v>114</v>
       </c>
       <c r="U9" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="V9" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="W9" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="X9" s="8"/>
     </row>
@@ -2482,52 +2479,52 @@
         <v>7</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F10" s="8"/>
       <c r="H10" s="6">
         <v>43</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="L10" s="8"/>
       <c r="N10" s="6">
         <v>79</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R10" s="8"/>
       <c r="T10" s="6">
         <v>115</v>
       </c>
       <c r="U10" s="7" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="V10" s="7" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="W10" s="7" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="X10" s="8"/>
     </row>
@@ -2536,52 +2533,52 @@
         <v>8</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F11" s="8"/>
       <c r="H11" s="6">
         <v>44</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L11" s="8"/>
       <c r="N11" s="6">
         <v>80</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R11" s="8"/>
       <c r="T11" s="6">
         <v>116</v>
       </c>
       <c r="U11" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="V11" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="W11" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="V11" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="W11" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="X11" s="8"/>
     </row>
@@ -2590,52 +2587,52 @@
         <v>9</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F12" s="8"/>
       <c r="H12" s="6">
         <v>45</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L12" s="8"/>
       <c r="N12" s="6">
         <v>81</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="R12" s="8"/>
       <c r="T12" s="6">
         <v>117</v>
       </c>
       <c r="U12" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="V12" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="W12" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="X12" s="8"/>
     </row>
@@ -2644,52 +2641,52 @@
         <v>10</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F13" s="8"/>
       <c r="H13" s="6">
         <v>46</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L13" s="8"/>
       <c r="N13" s="6">
         <v>82</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R13" s="8"/>
       <c r="T13" s="6">
         <v>118</v>
       </c>
       <c r="U13" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="V13" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="W13" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="X13" s="8"/>
     </row>
@@ -2698,52 +2695,52 @@
         <v>11</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F14" s="8"/>
       <c r="H14" s="6">
         <v>47</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L14" s="8"/>
       <c r="N14" s="6">
         <v>83</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="R14" s="8"/>
       <c r="T14" s="6">
         <v>119</v>
       </c>
       <c r="U14" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="V14" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="W14" s="7" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="X14" s="8"/>
     </row>
@@ -2752,52 +2749,52 @@
         <v>12</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F15" s="8"/>
       <c r="H15" s="6">
         <v>48</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L15" s="8"/>
       <c r="N15" s="6">
         <v>84</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R15" s="8"/>
       <c r="T15" s="6">
         <v>120</v>
       </c>
       <c r="U15" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="V15" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="W15" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="X15" s="8"/>
     </row>
@@ -2808,7 +2805,7 @@
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16" s="11"/>
       <c r="H16" s="9">
@@ -2817,33 +2814,33 @@
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
       <c r="K16" s="10" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="L16" s="11"/>
       <c r="N16" s="6">
         <v>85</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="R16" s="8"/>
       <c r="T16" s="6">
         <v>121</v>
       </c>
       <c r="U16" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="V16" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="W16" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="X16" s="8"/>
     </row>
@@ -2852,26 +2849,26 @@
         <v>14</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F17" s="8"/>
       <c r="H17" s="6">
         <v>50</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L17" s="8"/>
       <c r="N17" s="9">
@@ -2880,7 +2877,7 @@
       <c r="O17" s="10"/>
       <c r="P17" s="10"/>
       <c r="Q17" s="10" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="R17" s="11"/>
       <c r="T17" s="9">
@@ -2889,7 +2886,7 @@
       <c r="U17" s="10"/>
       <c r="V17" s="10"/>
       <c r="W17" s="10" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="X17" s="11"/>
     </row>
@@ -2898,52 +2895,52 @@
         <v>15</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F18" s="8"/>
       <c r="H18" s="6">
         <v>51</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L18" s="8"/>
       <c r="N18" s="6">
         <v>87</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="R18" s="8"/>
       <c r="T18" s="6">
         <v>123</v>
       </c>
       <c r="U18" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="V18" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="W18" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="X18" s="8"/>
     </row>
@@ -2952,13 +2949,13 @@
         <v>16</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F19" s="8"/>
       <c r="H19" s="9">
@@ -2967,33 +2964,33 @@
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
       <c r="K19" s="10" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="L19" s="11"/>
       <c r="N19" s="6">
         <v>88</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R19" s="8"/>
       <c r="T19" s="6">
         <v>124</v>
       </c>
       <c r="U19" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="V19" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="W19" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="X19" s="8"/>
     </row>
@@ -3002,13 +2999,13 @@
         <v>17</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F20" s="8"/>
       <c r="H20" s="9">
@@ -3017,7 +3014,7 @@
       <c r="I20" s="10"/>
       <c r="J20" s="10"/>
       <c r="K20" s="10" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="L20" s="11"/>
       <c r="N20" s="9">
@@ -3026,7 +3023,7 @@
       <c r="O20" s="10"/>
       <c r="P20" s="10"/>
       <c r="Q20" s="10" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="R20" s="11"/>
       <c r="T20" s="9">
@@ -3035,7 +3032,7 @@
       <c r="U20" s="10"/>
       <c r="V20" s="10"/>
       <c r="W20" s="10" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="X20" s="11"/>
     </row>
@@ -3046,7 +3043,7 @@
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
       <c r="E21" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F21" s="11"/>
       <c r="H21" s="9">
@@ -3055,7 +3052,7 @@
       <c r="I21" s="10"/>
       <c r="J21" s="10"/>
       <c r="K21" s="10" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="L21" s="11"/>
       <c r="N21" s="9">
@@ -3064,20 +3061,20 @@
       <c r="O21" s="10"/>
       <c r="P21" s="10"/>
       <c r="Q21" s="10" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="R21" s="11"/>
       <c r="T21" s="6">
         <v>126</v>
       </c>
       <c r="U21" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="V21" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="W21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="X21" s="8"/>
     </row>
@@ -3088,20 +3085,20 @@
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F22" s="11"/>
       <c r="H22" s="6">
         <v>55</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="L22" s="8"/>
       <c r="N22" s="9">
@@ -3110,20 +3107,20 @@
       <c r="O22" s="10"/>
       <c r="P22" s="10"/>
       <c r="Q22" s="10" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="R22" s="11"/>
       <c r="T22" s="6">
         <v>127</v>
       </c>
       <c r="U22" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="V22" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="W22" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="X22" s="8"/>
     </row>
@@ -3134,33 +3131,33 @@
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
       <c r="E23" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F23" s="11"/>
       <c r="H23" s="6">
         <v>56</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J23" s="24" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L23" s="8"/>
       <c r="N23" s="6">
         <v>92</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="R23" s="8"/>
       <c r="T23" s="9">
@@ -3169,7 +3166,7 @@
       <c r="U23" s="10"/>
       <c r="V23" s="10"/>
       <c r="W23" s="10" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="X23" s="11"/>
     </row>
@@ -3178,39 +3175,39 @@
         <v>21</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F24" s="8"/>
       <c r="H24" s="6">
         <v>57</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L24" s="8"/>
       <c r="N24" s="6">
         <v>93</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="R24" s="8"/>
       <c r="T24" s="9">
@@ -3219,7 +3216,7 @@
       <c r="U24" s="10"/>
       <c r="V24" s="10"/>
       <c r="W24" s="10" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="X24" s="11"/>
     </row>
@@ -3228,39 +3225,39 @@
         <v>22</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F25" s="8"/>
       <c r="H25" s="6">
         <v>58</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L25" s="8"/>
       <c r="N25" s="6">
         <v>94</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R25" s="8"/>
       <c r="T25" s="9">
@@ -3269,7 +3266,7 @@
       <c r="U25" s="10"/>
       <c r="V25" s="10"/>
       <c r="W25" s="10" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="X25" s="11"/>
     </row>
@@ -3278,52 +3275,52 @@
         <v>23</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F26" s="8"/>
       <c r="H26" s="6">
         <v>59</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L26" s="8"/>
       <c r="N26" s="6">
         <v>95</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="R26" s="8"/>
       <c r="T26" s="6">
         <v>131</v>
       </c>
       <c r="U26" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="V26" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="W26" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="X26" s="8"/>
     </row>
@@ -3332,13 +3329,13 @@
         <v>24</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F27" s="8"/>
       <c r="H27" s="9">
@@ -3347,7 +3344,7 @@
       <c r="I27" s="10"/>
       <c r="J27" s="10"/>
       <c r="K27" s="10" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="L27" s="11"/>
       <c r="N27" s="9">
@@ -3356,20 +3353,20 @@
       <c r="O27" s="10"/>
       <c r="P27" s="10"/>
       <c r="Q27" s="10" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="R27" s="11"/>
       <c r="T27" s="6">
         <v>132</v>
       </c>
       <c r="U27" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="V27" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="W27" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="X27" s="8"/>
     </row>
@@ -3380,46 +3377,46 @@
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
       <c r="E28" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F28" s="11"/>
       <c r="H28" s="6">
         <v>61</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L28" s="8"/>
       <c r="N28" s="6">
         <v>97</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="R28" s="8"/>
       <c r="T28" s="6">
         <v>133</v>
       </c>
       <c r="U28" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="V28" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="W28" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="X28" s="8"/>
     </row>
@@ -3428,52 +3425,52 @@
         <v>26</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F29" s="8"/>
       <c r="H29" s="6">
         <v>62</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L29" s="8"/>
       <c r="N29" s="6">
         <v>98</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="R29" s="8"/>
       <c r="T29" s="6">
         <v>134</v>
       </c>
       <c r="U29" s="7" t="s">
-        <v>151</v>
+        <v>215</v>
       </c>
       <c r="V29" s="7" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="W29" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="X29" s="8"/>
     </row>
@@ -3482,13 +3479,13 @@
         <v>27</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F30" s="8"/>
       <c r="H30" s="9">
@@ -3497,20 +3494,20 @@
       <c r="I30" s="10"/>
       <c r="J30" s="10"/>
       <c r="K30" s="10" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="L30" s="11"/>
       <c r="N30" s="6">
         <v>99</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="R30" s="8"/>
       <c r="T30" s="9">
@@ -3519,7 +3516,7 @@
       <c r="U30" s="10"/>
       <c r="V30" s="10"/>
       <c r="W30" s="10" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="X30" s="11"/>
     </row>
@@ -3530,7 +3527,7 @@
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
       <c r="E31" s="10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F31" s="11"/>
       <c r="H31" s="9">
@@ -3539,20 +3536,20 @@
       <c r="I31" s="10"/>
       <c r="J31" s="10"/>
       <c r="K31" s="10" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="L31" s="11"/>
       <c r="N31" s="6">
         <v>100</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="R31" s="8"/>
       <c r="T31" s="9">
@@ -3561,7 +3558,7 @@
       <c r="U31" s="10"/>
       <c r="V31" s="10"/>
       <c r="W31" s="10" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="X31" s="11"/>
     </row>
@@ -3570,13 +3567,13 @@
         <v>29</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F32" s="8"/>
       <c r="H32" s="9">
@@ -3585,33 +3582,33 @@
       <c r="I32" s="10"/>
       <c r="J32" s="10"/>
       <c r="K32" s="10" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="L32" s="11"/>
       <c r="N32" s="6">
         <v>101</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="R32" s="8"/>
       <c r="T32" s="6">
         <v>137</v>
       </c>
       <c r="U32" s="7" t="s">
-        <v>140</v>
+        <v>216</v>
       </c>
       <c r="V32" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="W32" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="X32" s="8"/>
     </row>
@@ -3620,13 +3617,13 @@
         <v>30</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F33" s="8"/>
       <c r="H33" s="9">
@@ -3635,33 +3632,33 @@
       <c r="I33" s="10"/>
       <c r="J33" s="10"/>
       <c r="K33" s="10" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="L33" s="11"/>
       <c r="N33" s="6">
         <v>102</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="R33" s="8"/>
       <c r="T33" s="6">
         <v>138</v>
       </c>
       <c r="U33" s="7" t="s">
-        <v>141</v>
+        <v>217</v>
       </c>
       <c r="V33" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="W33" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="X33" s="8"/>
     </row>
@@ -3672,7 +3669,7 @@
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
       <c r="E34" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F34" s="11"/>
       <c r="H34" s="9">
@@ -3681,7 +3678,7 @@
       <c r="I34" s="10"/>
       <c r="J34" s="10"/>
       <c r="K34" s="10" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="L34" s="11"/>
       <c r="N34" s="9">
@@ -3690,20 +3687,20 @@
       <c r="O34" s="10"/>
       <c r="P34" s="10"/>
       <c r="Q34" s="10" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="R34" s="11"/>
       <c r="T34" s="6">
         <v>139</v>
       </c>
       <c r="U34" s="7" t="s">
-        <v>142</v>
+        <v>218</v>
       </c>
       <c r="V34" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="W34" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="X34" s="8"/>
     </row>
@@ -3712,13 +3709,13 @@
         <v>32</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F35" s="8"/>
       <c r="H35" s="9">
@@ -3727,33 +3724,33 @@
       <c r="I35" s="10"/>
       <c r="J35" s="10"/>
       <c r="K35" s="10" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="L35" s="11"/>
       <c r="N35" s="6">
         <v>104</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R35" s="8"/>
       <c r="T35" s="6">
         <v>140</v>
       </c>
       <c r="U35" s="7" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="V35" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="W35" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="X35" s="8"/>
     </row>
@@ -3762,13 +3759,13 @@
         <v>33</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F36" s="8"/>
       <c r="H36" s="9">
@@ -3777,33 +3774,33 @@
       <c r="I36" s="10"/>
       <c r="J36" s="10"/>
       <c r="K36" s="10" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="L36" s="11"/>
       <c r="N36" s="6">
         <v>105</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="R36" s="8"/>
       <c r="T36" s="6">
         <v>141</v>
       </c>
       <c r="U36" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="V36" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="W36" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="X36" s="8"/>
     </row>
@@ -3812,13 +3809,13 @@
         <v>34</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F37" s="8"/>
       <c r="H37" s="9">
@@ -3827,7 +3824,7 @@
       <c r="I37" s="10"/>
       <c r="J37" s="10"/>
       <c r="K37" s="10" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="L37" s="11"/>
       <c r="N37" s="9">
@@ -3836,20 +3833,20 @@
       <c r="O37" s="10"/>
       <c r="P37" s="10"/>
       <c r="Q37" s="10" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="R37" s="11"/>
       <c r="T37" s="6">
         <v>142</v>
       </c>
       <c r="U37" s="7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="V37" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="W37" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="X37" s="8"/>
     </row>
@@ -3858,13 +3855,13 @@
         <v>35</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F38" s="8"/>
       <c r="H38" s="9">
@@ -3873,7 +3870,7 @@
       <c r="I38" s="10"/>
       <c r="J38" s="10"/>
       <c r="K38" s="10" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="L38" s="11"/>
       <c r="N38" s="9">
@@ -3882,20 +3879,20 @@
       <c r="O38" s="10"/>
       <c r="P38" s="10"/>
       <c r="Q38" s="10" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="R38" s="11"/>
       <c r="T38" s="6">
         <v>143</v>
       </c>
       <c r="U38" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="V38" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="W38" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="X38" s="8"/>
     </row>
@@ -3906,7 +3903,7 @@
       <c r="C39" s="13"/>
       <c r="D39" s="13"/>
       <c r="E39" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F39" s="14"/>
       <c r="H39" s="12">
@@ -3915,7 +3912,7 @@
       <c r="I39" s="13"/>
       <c r="J39" s="13"/>
       <c r="K39" s="13" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="L39" s="14"/>
       <c r="N39" s="12">
@@ -3924,7 +3921,7 @@
       <c r="O39" s="13"/>
       <c r="P39" s="13"/>
       <c r="Q39" s="13" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="R39" s="14"/>
       <c r="T39" s="12">
@@ -3933,14 +3930,14 @@
       <c r="U39" s="13"/>
       <c r="V39" s="13"/>
       <c r="W39" s="13" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="X39" s="14"/>
     </row>
     <row r="41" spans="2:24">
       <c r="B41" s="19"/>
       <c r="C41" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -3952,7 +3949,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.71" right="0.71" top="0.75000000000000011" bottom="0.75000000000000011" header="0.31" footer="0.31"/>
-  <pageSetup paperSize="9" scale="58" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" scale="61" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
